--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>31.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>31.06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006252</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢消费主题灵活配置混合A</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006253</t>
+          <t>006252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢消费主题灵活配置混合C</t>
+          <t>永赢消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>002264</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>华夏乐享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>006253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>永赢消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002264</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏乐享健康灵活配置混合</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>256.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6882</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5413</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006524</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006525</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.49</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.71</v>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.12</v>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2087,13 +2174,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,14 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.18</v>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2606,14 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.49</v>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2622,14 +2687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.71</v>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2638,14 +2725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.12</v>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2654,13 +2763,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>17.18</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +3040,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.49</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="5">
@@ -2923,14 +3056,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>37.71</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="6">
@@ -2939,14 +3072,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>3.12</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="7">
@@ -2955,13 +3088,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,133 +457,281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -610,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>004040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>金鹰医疗健康产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3064</t>
+          <t>0.5270</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006252</t>
+          <t>004041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢消费主题灵活配置混合A</t>
+          <t>金鹰医疗健康产业股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8337</t>
+          <t>0.3531</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -716,36 +864,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002264</t>
+          <t>012086</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏乐享健康灵活配置混合</t>
+          <t>博时健康生活混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4803</t>
+          <t>0.0950</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -754,36 +902,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006253</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢消费主题灵活配置混合C</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>85.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2795</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -792,36 +940,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>005520</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>国投瑞银创新医疗灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>90.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1804</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -830,32 +978,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>012087</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>博时健康生活混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0427</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -867,7 +1015,727 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1835,727 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009542</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华富利精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6002</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5616</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3256</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>180012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华富裕主题混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>227.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.1924</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009542</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华富利精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>98.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.6054</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4334</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3490</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1625</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>75.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0935</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005112</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华中证全指医药卫生指数增强</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0927</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000059</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.16</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006569</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2582,7 +2730,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2612,36 +2760,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004040</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票A</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>85.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5270</t>
+          <t>1.3064</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2650,36 +2798,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004041</t>
+          <t>006252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票C</t>
+          <t>永赢消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>85.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3531</t>
+          <t>0.8337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2688,36 +2836,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012086</t>
+          <t>002264</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时健康生活混合型证券投资基金A</t>
+          <t>华夏乐享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0950</t>
+          <t>0.4803</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2726,36 +2874,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>006253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>永赢消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.78</t>
+          <t>85.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.2795</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2764,36 +2912,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005520</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.1804</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2802,168 +2950,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012087</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时健康生活混合型证券投资基金C</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0427</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0748</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000684</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长盛养老健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2977,144 +2993,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.14</v>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37.71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
+++ b/数据整理/stocks/A股/科创板/688185-康希诺.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>17.18</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.49</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>37.71</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>3.12</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2987,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
